--- a/meetings/apr_2020/DQC_0001ErrorsQ12020.xlsx
+++ b/meetings/apr_2020/DQC_0001ErrorsQ12020.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DQC\Meetings with SEC\4-1-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abeers\OneDrive - American Institute of Certified Public Accountants\XBRL\Data Quality Consortium\Committee Meetings\2020\April 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF337D5-8A0A-4EA5-88D3-D367D53738D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,6 +48,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Parent Company [Member] was moved to the Consolidated Entities Axis in 2018 taxonomy</t>
     </r>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -236,19 +236,23 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -551,14 +555,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
